--- a/Inputs/Orange/V2/addons1.xlsx
+++ b/Inputs/Orange/V2/addons1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Annual Limit" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,12 +16,14 @@
     <sheet name="Dental" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Maternity (Consultations, Scans" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Optical Benefits" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Maternity-addon" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Annual Limit'!$A$1:$F$23</definedName>
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Dental!$A$1:$F$30</definedName>
-    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">'Maternity (Consultations, Scans'!$A$1:$F$30</definedName>
+    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">'Maternity (Consultations, Scans'!$B$1:$G$30</definedName>
     <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">'Optical Benefits'!$A$1:$F$31</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Out-patient Medicines'!$A$1:$H$71</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="185">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -297,7 +299,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">AED 70</t>
+    <t xml:space="preserve">AED 75</t>
   </si>
   <si>
     <r>
@@ -402,6 +404,26 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Nil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Pharmacy Copay)</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">5%</t>
   </si>
   <si>
@@ -437,6 +459,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">5% (Pharmacy Copay)</t>
+  </si>
+  <si>
     <t xml:space="preserve">10%</t>
   </si>
   <si>
@@ -472,6 +497,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">10% (Pharmacy Copay)</t>
+  </si>
+  <si>
     <t xml:space="preserve">15%</t>
   </si>
   <si>
@@ -507,6 +535,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">15% (Pharmacy Copay)</t>
+  </si>
+  <si>
     <t xml:space="preserve">20%</t>
   </si>
   <si>
@@ -542,6 +573,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">20% (Pharmacy Copay)</t>
+  </si>
+  <si>
     <t xml:space="preserve">25%</t>
   </si>
   <si>
@@ -577,6 +611,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">25% (Pharmacy Copay)</t>
+  </si>
+  <si>
     <t xml:space="preserve">30%</t>
   </si>
   <si>
@@ -612,6 +649,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">30% (Pharmacy Copay)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Covered up to AED 1,500 with Nil co-pay</t>
   </si>
   <si>
@@ -807,6 +847,9 @@
     <t xml:space="preserve">fixed</t>
   </si>
   <si>
+    <t xml:space="preserve">Dental Addon</t>
+  </si>
+  <si>
     <t xml:space="preserve">Covered up to AED 1,000 with 20% co-pay</t>
   </si>
   <si>
@@ -816,30 +859,135 @@
     <t xml:space="preserve">Covered up to AED 3,500 with 20% co-pay</t>
   </si>
   <si>
+    <t xml:space="preserve">sheetName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maternity-addon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conditional-fixed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maternity Addon</t>
+  </si>
+  <si>
     <t xml:space="preserve">IP &amp; OP- Covered up to AED 10,000 with AED 500 deductible (Optional Benefits Available)</t>
   </si>
   <si>
+    <t xml:space="preserve">m1</t>
+  </si>
+  <si>
     <t xml:space="preserve">IP &amp; OP- Covered up to AED 7,500 with AED 500 deductible</t>
   </si>
   <si>
+    <t xml:space="preserve">m2</t>
+  </si>
+  <si>
     <t xml:space="preserve">IP &amp; OP- Covered up to AED 15,000 with AED 500 deductible</t>
   </si>
   <si>
+    <t xml:space="preserve">m3</t>
+  </si>
+  <si>
     <t xml:space="preserve">IP &amp; OP- Covered up to AED 20,00 with AED 500 deductible</t>
   </si>
   <si>
+    <t xml:space="preserve">m4</t>
+  </si>
+  <si>
     <t xml:space="preserve">IP &amp; OP- Covered up to AED 25,000 with AED 500 deductible</t>
   </si>
   <si>
+    <t xml:space="preserve">m5</t>
+  </si>
+  <si>
     <t xml:space="preserve">IP &amp; OP- Covered up to AED 30,000 with AED 500 deductible</t>
   </si>
   <si>
+    <t xml:space="preserve">m6</t>
+  </si>
+  <si>
     <t xml:space="preserve">IP &amp; OP- Covered up to AED 40,000 with AED 500 deductible</t>
   </si>
   <si>
+    <t xml:space="preserve">m7</t>
+  </si>
+  <si>
     <t xml:space="preserve">IP &amp; OP- Covered up to AED 50,000 with AED 500 deductible</t>
   </si>
   <si>
+    <t xml:space="preserve">m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optical Addon</t>
+  </si>
+  <si>
     <t xml:space="preserve">Covered up to AED 300 with 20% co-pay</t>
   </si>
   <si>
@@ -847,6 +995,24 @@
   </si>
   <si>
     <t xml:space="preserve">Covered up to AED 750 with 20% co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ageStart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ageEnd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maritalStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">married</t>
   </si>
 </sst>
 </file>
@@ -859,7 +1025,7 @@
     <numFmt numFmtId="166" formatCode="0%"/>
     <numFmt numFmtId="167" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -894,6 +1060,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -993,6 +1165,23 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF3D3D3D"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1012,6 +1201,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -1023,7 +1216,7 @@
       <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.98"/>
@@ -1080,7 +1273,8 @@
       <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="4" t="b">
+      <c r="H2" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1107,7 +1301,8 @@
       <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="4" t="b">
+      <c r="H3" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1134,7 +1329,8 @@
       <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="4" t="b">
+      <c r="H4" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1161,7 +1357,8 @@
       <c r="G5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="4" t="b">
+      <c r="H5" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1188,7 +1385,8 @@
       <c r="G6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="4" t="b">
+      <c r="H6" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1215,7 +1413,8 @@
       <c r="G7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="4" t="b">
+      <c r="H7" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1242,7 +1441,8 @@
       <c r="G8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="4" t="b">
+      <c r="H8" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1269,7 +1469,8 @@
       <c r="G9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="4" t="b">
+      <c r="H9" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1296,7 +1497,8 @@
       <c r="G10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="4" t="b">
+      <c r="H10" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1323,7 +1525,8 @@
       <c r="G11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="4" t="b">
+      <c r="H11" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1350,7 +1553,8 @@
       <c r="G12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="4" t="b">
+      <c r="H12" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1377,7 +1581,8 @@
       <c r="G13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="4" t="b">
+      <c r="H13" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1404,7 +1609,8 @@
       <c r="G14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="4" t="b">
+      <c r="H14" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1431,7 +1637,8 @@
       <c r="G15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="4" t="b">
+      <c r="H15" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1458,7 +1665,8 @@
       <c r="G16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="4" t="b">
+      <c r="H16" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1485,7 +1693,8 @@
       <c r="G17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="4" t="b">
+      <c r="H17" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1512,7 +1721,8 @@
       <c r="G18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="4" t="b">
+      <c r="H18" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1539,7 +1749,8 @@
       <c r="G19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="4" t="b">
+      <c r="H19" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1566,7 +1777,8 @@
       <c r="G20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="4" t="b">
+      <c r="H20" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1593,7 +1805,8 @@
       <c r="G21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="4" t="b">
+      <c r="H21" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1620,7 +1833,8 @@
       <c r="G22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="4" t="b">
+      <c r="H22" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1647,7 +1861,8 @@
       <c r="G23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="4" t="b">
+      <c r="H23" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1655,7 +1870,7 @@
   <autoFilter ref="A1:F23"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1675,7 +1890,7 @@
       <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.65"/>
@@ -1734,7 +1949,8 @@
       <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="4" t="b">
+      <c r="H2" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1761,7 +1977,8 @@
       <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="4" t="b">
+      <c r="H3" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1788,7 +2005,8 @@
       <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="4" t="b">
+      <c r="H4" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1815,7 +2033,8 @@
       <c r="G5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="4" t="b">
+      <c r="H5" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1842,7 +2061,8 @@
       <c r="G6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="4" t="b">
+      <c r="H6" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1869,7 +2089,8 @@
       <c r="G7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="4" t="b">
+      <c r="H7" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1896,7 +2117,8 @@
       <c r="G8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="4" t="b">
+      <c r="H8" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1923,7 +2145,8 @@
       <c r="G9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="4" t="b">
+      <c r="H9" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1950,7 +2173,8 @@
       <c r="G10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="4" t="b">
+      <c r="H10" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1977,7 +2201,8 @@
       <c r="G11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="4" t="b">
+      <c r="H11" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2004,7 +2229,8 @@
       <c r="G12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="4" t="b">
+      <c r="H12" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2031,7 +2257,8 @@
       <c r="G13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="4" t="b">
+      <c r="H13" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2058,7 +2285,8 @@
       <c r="G14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="4" t="b">
+      <c r="H14" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2085,7 +2313,8 @@
       <c r="G15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="4" t="b">
+      <c r="H15" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2112,14 +2341,15 @@
       <c r="G16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="4" t="b">
+      <c r="H16" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2135,10 +2365,10 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.18"/>
@@ -2189,7 +2419,8 @@
       <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4" t="b">
+      <c r="G2" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2213,7 +2444,8 @@
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="4" t="b">
+      <c r="G3" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2237,7 +2469,8 @@
       <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="4" t="b">
+      <c r="G4" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2261,7 +2494,8 @@
       <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="4" t="b">
+      <c r="G5" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2285,7 +2519,8 @@
       <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="4" t="b">
+      <c r="G6" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2309,7 +2544,8 @@
       <c r="F7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="4" t="b">
+      <c r="G7" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2333,7 +2569,8 @@
       <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="4" t="b">
+      <c r="G8" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2357,14 +2594,15 @@
       <c r="F9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="4" t="b">
+      <c r="G9" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2380,10 +2618,10 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.3"/>
@@ -2434,7 +2672,8 @@
       <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4" t="b">
+      <c r="G2" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2458,7 +2697,8 @@
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="4" t="b">
+      <c r="G3" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2482,7 +2722,8 @@
       <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="4" t="b">
+      <c r="G4" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2506,7 +2747,8 @@
       <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="4" t="b">
+      <c r="G5" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2530,14 +2772,15 @@
       <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="4" t="b">
+      <c r="G6" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2552,13 +2795,14 @@
   </sheetPr>
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="55.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.39"/>
   </cols>
   <sheetData>
@@ -2578,13 +2822,13 @@
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2606,12 +2850,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="4" t="b">
+      <c r="H2" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2620,10 +2865,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2632,13 +2877,14 @@
       <c r="E3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>45</v>
+      <c r="F3" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="4" t="b">
+      <c r="H3" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2647,10 +2893,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2660,12 +2906,13 @@
         <v>0</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="4" t="b">
+      <c r="H4" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2674,10 +2921,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2687,12 +2934,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="4" t="b">
+      <c r="H5" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2701,10 +2949,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2714,12 +2962,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="4" t="b">
+      <c r="H6" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2728,10 +2977,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2741,12 +2990,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="4" t="b">
+      <c r="H7" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2755,10 +3005,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2768,12 +3018,13 @@
         <v>0</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="4" t="b">
+      <c r="H8" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2785,7 +3036,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2795,12 +3046,13 @@
         <v>-2.49999999999999</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="4" t="b">
+      <c r="H9" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2812,7 +3064,7 @@
         <v>27</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2822,12 +3074,13 @@
         <v>-2.25</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="4" t="b">
+      <c r="H10" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2839,7 +3092,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D11" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2849,12 +3102,13 @@
         <v>-2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="4" t="b">
+      <c r="H11" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2866,7 +3120,7 @@
         <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D12" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2876,12 +3130,13 @@
         <v>-1.75</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="4" t="b">
+      <c r="H12" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2893,7 +3148,7 @@
         <v>27</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D13" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2903,12 +3158,13 @@
         <v>-1.25</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="4" t="b">
+      <c r="H13" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2920,7 +3176,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D14" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2930,12 +3186,13 @@
         <v>-1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="4" t="b">
+      <c r="H14" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2947,7 +3204,7 @@
         <v>27</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D15" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2957,12 +3214,13 @@
         <v>-0.749999999999995</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="4" t="b">
+      <c r="H15" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2974,7 +3232,7 @@
         <v>27</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D16" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2984,12 +3242,13 @@
         <v>-0.5</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="4" t="b">
+      <c r="H16" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3001,7 +3260,7 @@
         <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D17" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3011,12 +3270,13 @@
         <v>-0.249999999999995</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="4" t="b">
+      <c r="H17" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3025,10 +3285,10 @@
         <v>8</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D18" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3038,12 +3298,13 @@
         <v>-2.49999999999999</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="4" t="b">
+      <c r="H18" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3052,10 +3313,10 @@
         <v>8</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D19" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3065,12 +3326,13 @@
         <v>-2.25</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="4" t="b">
+      <c r="H19" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3079,10 +3341,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D20" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3092,12 +3354,13 @@
         <v>-2</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="4" t="b">
+      <c r="H20" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3106,10 +3369,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D21" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3119,12 +3382,13 @@
         <v>-1.75</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="4" t="b">
+      <c r="H21" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3133,10 +3397,10 @@
         <v>8</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D22" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3146,12 +3410,13 @@
         <v>-1.25</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="4" t="b">
+      <c r="H22" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3160,10 +3425,10 @@
         <v>8</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D23" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3173,12 +3438,13 @@
         <v>-1</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="4" t="b">
+      <c r="H23" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3187,10 +3453,10 @@
         <v>8</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D24" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3200,12 +3466,13 @@
         <v>-0.749999999999995</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="4" t="b">
+      <c r="H24" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3214,10 +3481,10 @@
         <v>8</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D25" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3227,12 +3494,13 @@
         <v>-0.5</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="4" t="b">
+      <c r="H25" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3241,10 +3509,10 @@
         <v>8</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D26" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3254,12 +3522,13 @@
         <v>-0.249999999999995</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="4" t="b">
+      <c r="H26" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3268,10 +3537,10 @@
         <v>8</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D27" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3281,12 +3550,13 @@
         <v>-2.49999999999999</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="4" t="b">
+      <c r="H27" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3295,10 +3565,10 @@
         <v>8</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D28" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3308,12 +3578,13 @@
         <v>-2.25</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="4" t="b">
+      <c r="H28" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3322,10 +3593,10 @@
         <v>8</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D29" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3335,12 +3606,13 @@
         <v>-2</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="4" t="b">
+      <c r="H29" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3349,10 +3621,10 @@
         <v>8</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D30" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3362,12 +3634,13 @@
         <v>-1.75</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="4" t="b">
+      <c r="H30" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3376,10 +3649,10 @@
         <v>8</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D31" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3389,12 +3662,13 @@
         <v>-1.25</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="4" t="b">
+      <c r="H31" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3403,10 +3677,10 @@
         <v>8</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D32" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3416,12 +3690,13 @@
         <v>-1</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H32" s="4" t="b">
+      <c r="H32" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3430,10 +3705,10 @@
         <v>8</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D33" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3443,12 +3718,13 @@
         <v>-0.749999999999995</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H33" s="4" t="b">
+      <c r="H33" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3457,10 +3733,10 @@
         <v>8</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D34" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3470,12 +3746,13 @@
         <v>-0.5</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H34" s="4" t="b">
+      <c r="H34" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3484,10 +3761,10 @@
         <v>8</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D35" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3497,12 +3774,13 @@
         <v>-0.249999999999995</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H35" s="4" t="b">
+      <c r="H35" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3511,10 +3789,10 @@
         <v>8</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D36" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3524,12 +3802,13 @@
         <v>-2.49999999999999</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H36" s="4" t="b">
+      <c r="H36" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3538,10 +3817,10 @@
         <v>8</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D37" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3551,12 +3830,13 @@
         <v>-2.25</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H37" s="4" t="b">
+      <c r="H37" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3565,10 +3845,10 @@
         <v>8</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D38" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3578,12 +3858,13 @@
         <v>-2</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="4" t="b">
+      <c r="H38" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3592,10 +3873,10 @@
         <v>8</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D39" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3605,12 +3886,13 @@
         <v>-1.75</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H39" s="4" t="b">
+      <c r="H39" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3619,10 +3901,10 @@
         <v>8</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D40" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3632,12 +3914,13 @@
         <v>-1.25</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H40" s="4" t="b">
+      <c r="H40" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3646,10 +3929,10 @@
         <v>8</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D41" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3659,12 +3942,13 @@
         <v>-1</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H41" s="4" t="b">
+      <c r="H41" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3673,10 +3957,10 @@
         <v>8</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D42" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3686,12 +3970,13 @@
         <v>-0.749999999999995</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H42" s="4" t="b">
+      <c r="H42" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3700,10 +3985,10 @@
         <v>8</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D43" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3713,12 +3998,13 @@
         <v>-0.5</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H43" s="4" t="b">
+      <c r="H43" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3727,10 +4013,10 @@
         <v>8</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D44" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3740,12 +4026,13 @@
         <v>-0.249999999999995</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H44" s="4" t="b">
+      <c r="H44" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3754,10 +4041,10 @@
         <v>8</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D45" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3767,12 +4054,13 @@
         <v>-2.49999999999999</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H45" s="4" t="b">
+      <c r="H45" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3781,10 +4069,10 @@
         <v>8</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D46" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3794,12 +4082,13 @@
         <v>-2.25</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H46" s="4" t="b">
+      <c r="H46" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3808,10 +4097,10 @@
         <v>8</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D47" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3821,12 +4110,13 @@
         <v>-2</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H47" s="4" t="b">
+      <c r="H47" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3835,10 +4125,10 @@
         <v>8</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D48" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3848,12 +4138,13 @@
         <v>-1.75</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H48" s="4" t="b">
+      <c r="H48" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3862,10 +4153,10 @@
         <v>8</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D49" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3875,12 +4166,13 @@
         <v>-1.25</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H49" s="4" t="b">
+      <c r="H49" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3889,10 +4181,10 @@
         <v>8</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D50" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3902,12 +4194,13 @@
         <v>-1</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H50" s="4" t="b">
+      <c r="H50" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3916,10 +4209,10 @@
         <v>8</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D51" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3929,12 +4222,13 @@
         <v>-0.749999999999995</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H51" s="4" t="b">
+      <c r="H51" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3943,10 +4237,10 @@
         <v>8</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D52" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3956,12 +4250,13 @@
         <v>-0.5</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H52" s="4" t="b">
+      <c r="H52" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3970,10 +4265,10 @@
         <v>8</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D53" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3983,12 +4278,13 @@
         <v>-0.249999999999995</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H53" s="4" t="b">
+      <c r="H53" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3997,10 +4293,10 @@
         <v>8</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D54" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4010,12 +4306,13 @@
         <v>-2.49999999999999</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H54" s="4" t="b">
+      <c r="H54" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4024,10 +4321,10 @@
         <v>8</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D55" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4037,12 +4334,13 @@
         <v>-2.25</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H55" s="4" t="b">
+      <c r="H55" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4051,10 +4349,10 @@
         <v>8</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D56" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4064,12 +4362,13 @@
         <v>-2</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H56" s="4" t="b">
+      <c r="H56" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4078,10 +4377,10 @@
         <v>8</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D57" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4091,12 +4390,13 @@
         <v>-1.75</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H57" s="4" t="b">
+      <c r="H57" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4105,10 +4405,10 @@
         <v>8</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D58" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4118,12 +4418,13 @@
         <v>-1.25</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H58" s="4" t="b">
+      <c r="H58" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4132,10 +4433,10 @@
         <v>8</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D59" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4145,12 +4446,13 @@
         <v>-1</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H59" s="4" t="b">
+      <c r="H59" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4159,10 +4461,10 @@
         <v>8</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D60" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4172,12 +4474,13 @@
         <v>-0.749999999999995</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H60" s="4" t="b">
+      <c r="H60" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4186,10 +4489,10 @@
         <v>8</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D61" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4199,12 +4502,13 @@
         <v>-0.5</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H61" s="4" t="b">
+      <c r="H61" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4213,10 +4517,10 @@
         <v>8</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D62" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4226,12 +4530,13 @@
         <v>-0.249999999999995</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H62" s="4" t="b">
+      <c r="H62" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4240,10 +4545,10 @@
         <v>8</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D63" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4253,12 +4558,13 @@
         <v>-2.49999999999999</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H63" s="4" t="b">
+      <c r="H63" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4267,10 +4573,10 @@
         <v>8</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D64" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4280,12 +4586,13 @@
         <v>-2.25</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H64" s="4" t="b">
+      <c r="H64" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4294,10 +4601,10 @@
         <v>8</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D65" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4307,12 +4614,13 @@
         <v>-2</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H65" s="4" t="b">
+      <c r="H65" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4321,10 +4629,10 @@
         <v>8</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D66" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4334,12 +4642,13 @@
         <v>-1.75</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H66" s="4" t="b">
+      <c r="H66" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4348,10 +4657,10 @@
         <v>8</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D67" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4361,12 +4670,13 @@
         <v>-1.25</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H67" s="4" t="b">
+      <c r="H67" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4375,10 +4685,10 @@
         <v>8</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D68" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4388,12 +4698,13 @@
         <v>-1</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H68" s="4" t="b">
+      <c r="H68" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4402,10 +4713,10 @@
         <v>8</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D69" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4415,12 +4726,13 @@
         <v>-0.749999999999995</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H69" s="4" t="b">
+      <c r="H69" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4429,10 +4741,10 @@
         <v>8</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D70" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4442,12 +4754,13 @@
         <v>-0.5</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H70" s="4" t="b">
+      <c r="H70" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4456,10 +4769,10 @@
         <v>8</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D71" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4469,23 +4782,26 @@
         <v>-0.249999999999995</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H71" s="4" t="b">
+      <c r="H71" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H71"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4497,12 +4813,12 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="E35" activeCellId="0" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.84"/>
@@ -4532,7 +4848,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>7</v>
@@ -4540,13 +4856,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4562,21 +4878,22 @@
         <v>11</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I2" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4592,21 +4909,22 @@
         <v>11</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I3" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4622,21 +4940,22 @@
         <v>11</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I4" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4652,21 +4971,22 @@
         <v>11</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I5" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4682,21 +5002,22 @@
         <v>11</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I6" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4712,21 +5033,22 @@
         <v>11</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I7" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4742,21 +5064,22 @@
         <v>11</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I8" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4772,21 +5095,22 @@
         <v>11</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I9" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4802,21 +5126,22 @@
         <v>11</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I10" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D11" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4832,21 +5157,22 @@
         <v>11</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I11" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I11" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D12" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4862,21 +5188,22 @@
         <v>11</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I12" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I12" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D13" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4892,21 +5219,22 @@
         <v>11</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I13" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I13" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D14" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4922,21 +5250,22 @@
         <v>11</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I14" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I14" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D15" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4952,21 +5281,22 @@
         <v>11</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I15" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I15" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D16" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4982,21 +5312,22 @@
         <v>11</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I16" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I16" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D17" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5012,21 +5343,22 @@
         <v>11</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I17" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I17" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D18" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5042,21 +5374,22 @@
         <v>11</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I18" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I18" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D19" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5072,21 +5405,22 @@
         <v>11</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I19" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I19" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D20" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5102,21 +5436,22 @@
         <v>11</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I20" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I20" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D21" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5132,21 +5467,22 @@
         <v>11</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I21" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I21" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D22" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5162,21 +5498,22 @@
         <v>11</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I22" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I22" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D23" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5192,21 +5529,22 @@
         <v>11</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I23" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I23" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D24" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5222,21 +5560,22 @@
         <v>11</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I24" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I24" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D25" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5252,21 +5591,22 @@
         <v>11</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I25" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I25" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D26" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5282,21 +5622,22 @@
         <v>11</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I26" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I26" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D27" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5312,21 +5653,22 @@
         <v>11</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I27" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I27" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D28" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5342,21 +5684,22 @@
         <v>11</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I28" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I28" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D29" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5372,21 +5715,22 @@
         <v>11</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I29" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I29" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D30" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5402,9 +5746,10 @@
         <v>11</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I30" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I30" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -5412,7 +5757,7 @@
   <autoFilter ref="A1:F30"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5426,926 +5771,1137 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="75.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="75.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
-        <v>120</v>
-      </c>
       <c r="I1" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>125</v>
+        <v>135</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="G2" s="1" t="n">
         <v>3824</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I2" s="4" t="b">
-        <v>1</v>
+      <c r="H2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="G3" s="0" t="n">
         <v>3673.05263157895</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I3" s="4" t="b">
-        <v>1</v>
+      <c r="H3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>127</v>
+        <v>135</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="G4" s="0" t="n">
         <v>5031.57894736842</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I4" s="4" t="b">
-        <v>1</v>
+      <c r="H4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>128</v>
+        <v>135</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="G5" s="0" t="n">
         <v>5434.1052631579</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I5" s="4" t="b">
-        <v>1</v>
+      <c r="H5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="G6" s="0" t="n">
         <v>5736</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I6" s="4" t="b">
-        <v>1</v>
+      <c r="H6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="G7" s="0" t="n">
         <v>6390.1052631579</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I7" s="4" t="b">
-        <v>1</v>
+      <c r="H7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="G8" s="0" t="n">
         <v>6490.73684210526</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I8" s="4" t="b">
-        <v>1</v>
+      <c r="H8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="G9" s="0" t="n">
         <v>6692</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I9" s="4" t="b">
-        <v>1</v>
+      <c r="H9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>125</v>
+        <v>135</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="G10" s="1" t="n">
         <v>3544.55555555556</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I10" s="4" t="b">
-        <v>1</v>
+      <c r="H10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E11" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="G11" s="0" t="n">
         <v>3404.63888888889</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I11" s="4" t="b">
-        <v>1</v>
+      <c r="H11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="J11" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>127</v>
+        <v>135</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E12" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="G12" s="0" t="n">
         <v>4663.88888888889</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I12" s="4" t="b">
-        <v>1</v>
+      <c r="H12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>128</v>
+        <v>135</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D13" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E13" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="G13" s="0" t="n">
         <v>5037</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I13" s="4" t="b">
-        <v>1</v>
+      <c r="H13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D14" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E14" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="G14" s="0" t="n">
         <v>5316.83333333333</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I14" s="4" t="b">
-        <v>1</v>
+      <c r="H14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E15" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="G15" s="0" t="n">
         <v>5923.13888888889</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I15" s="4" t="b">
-        <v>1</v>
+      <c r="H15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E16" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="G16" s="0" t="n">
         <v>6016.41666666667</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I16" s="4" t="b">
-        <v>1</v>
+      <c r="H16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="J16" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D17" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E17" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="G17" s="0" t="n">
         <v>6202.97222222222</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I17" s="4" t="b">
-        <v>1</v>
+      <c r="H17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>125</v>
+        <v>135</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D18" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E18" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="1" t="n">
+      <c r="G18" s="1" t="n">
         <v>2520.92</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I18" s="4" t="b">
-        <v>1</v>
+      <c r="H18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="J18" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E19" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="G19" s="0" t="n">
         <v>2421.41</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I19" s="4" t="b">
-        <v>1</v>
+      <c r="H19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="J19" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>127</v>
+        <v>135</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E20" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="G20" s="0" t="n">
         <v>3317</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I20" s="4" t="b">
-        <v>1</v>
+      <c r="H20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="J20" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>128</v>
+        <v>135</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D21" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E21" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="G21" s="0" t="n">
         <v>3582.36</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I21" s="4" t="b">
-        <v>1</v>
+      <c r="H21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="J21" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D22" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E22" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="G22" s="0" t="n">
         <v>3781.38</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I22" s="4" t="b">
-        <v>1</v>
+      <c r="H22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="J22" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D23" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E23" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="G23" s="0" t="n">
         <v>4212.59</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I23" s="4" t="b">
-        <v>1</v>
+      <c r="H23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="J23" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>125</v>
+        <v>135</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D24" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E24" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="1" t="n">
+      <c r="G24" s="1" t="n">
         <v>2304</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I24" s="4" t="b">
-        <v>1</v>
+      <c r="H24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="J24" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D25" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E25" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="G25" s="0" t="n">
         <v>2213.05263157895</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I25" s="4" t="b">
-        <v>1</v>
+      <c r="H25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="J25" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>127</v>
+        <v>135</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E26" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E26" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="G26" s="0" t="n">
         <v>3031.57894736842</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I26" s="4" t="b">
-        <v>1</v>
+      <c r="H26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="J26" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>128</v>
+        <v>135</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D27" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E27" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="G27" s="0" t="n">
         <v>3274.10526315789</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I27" s="4" t="b">
-        <v>1</v>
+      <c r="H27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="J27" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>125</v>
+        <v>135</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D28" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E28" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="1" t="n">
+      <c r="G28" s="1" t="n">
         <v>1939</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I28" s="4" t="b">
-        <v>1</v>
+      <c r="H28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="J28" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>126</v>
+        <v>135</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D29" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E29" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="G29" s="0" t="n">
         <v>1862.46052631579</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I29" s="4" t="b">
-        <v>1</v>
+      <c r="H29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="J29" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>127</v>
+        <v>135</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E30" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E30" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="G30" s="0" t="n">
         <v>2551.31578947368</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I30" s="4" t="b">
-        <v>1</v>
+      <c r="H30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="J30" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F30"/>
+  <autoFilter ref="B1:G30"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -6361,11 +6917,11 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="47.56"/>
@@ -6396,7 +6952,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>7</v>
@@ -6404,13 +6960,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="D2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6426,21 +6982,22 @@
         <v>11</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I2" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="D3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6456,21 +7013,22 @@
         <v>11</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I3" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="D4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6486,21 +7044,22 @@
         <v>11</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I4" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6516,21 +7075,22 @@
         <v>11</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I5" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6546,21 +7106,22 @@
         <v>11</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I6" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6576,21 +7137,22 @@
         <v>11</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I7" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6606,21 +7168,22 @@
         <v>11</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I8" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="D9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6636,21 +7199,22 @@
         <v>11</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I9" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="D10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6666,21 +7230,22 @@
         <v>11</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I10" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="D11" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6696,21 +7261,22 @@
         <v>11</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I11" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I11" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D12" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6726,21 +7292,22 @@
         <v>11</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I12" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I12" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D13" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6756,21 +7323,22 @@
         <v>11</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I13" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I13" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D14" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6786,21 +7354,22 @@
         <v>11</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I14" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I14" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D15" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6816,21 +7385,22 @@
         <v>11</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I15" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I15" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="D16" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6846,21 +7416,22 @@
         <v>11</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I16" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I16" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="D17" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6876,21 +7447,22 @@
         <v>11</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I17" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I17" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="D18" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6906,21 +7478,22 @@
         <v>11</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I18" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I18" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D19" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6936,21 +7509,22 @@
         <v>11</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I19" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I19" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D20" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6966,21 +7540,22 @@
         <v>11</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I20" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I20" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D21" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6996,21 +7571,22 @@
         <v>11</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I21" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I21" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D22" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7026,21 +7602,22 @@
         <v>11</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I22" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I22" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="D23" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7056,21 +7633,22 @@
         <v>11</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I23" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I23" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="D24" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7086,21 +7664,22 @@
         <v>11</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I24" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I24" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="D25" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7116,21 +7695,22 @@
         <v>11</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I25" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I25" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D26" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7146,21 +7726,22 @@
         <v>11</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I26" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I26" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D27" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7176,21 +7757,22 @@
         <v>11</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I27" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I27" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="D28" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7206,21 +7788,22 @@
         <v>11</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I28" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I28" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="D29" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7236,21 +7819,22 @@
         <v>11</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I29" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I29" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="D30" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7266,21 +7850,22 @@
         <v>11</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I30" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I30" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D31" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7296,9 +7881,10 @@
         <v>11</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I31" s="4" t="b">
+        <v>131</v>
+      </c>
+      <c r="I31" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -7306,11 +7892,635 @@
   <autoFilter ref="A1:F31"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>3824</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>3673.05263157895</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>5031.57894736842</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>5434.1052631579</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>5736</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>6390.1052631579</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>6490.73684210526</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>6692</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>3544.55555555556</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>3404.63888888889</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>4663.88888888889</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>5037</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>5316.83333333333</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>5923.13888888889</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>6016.41666666667</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>6202.97222222222</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>2520.92</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>2421.41</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>3317</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>3582.36</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>3781.38</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>4212.59</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>2304</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>2213.05263157895</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>3031.57894736842</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>3274.10526315789</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>1939</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>1862.46052631579</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>2551.31578947368</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Inputs/Orange/V2/addons1.xlsx
+++ b/Inputs/Orange/V2/addons1.xlsx
@@ -16,13 +16,16 @@
     <sheet name="Dental" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Maternity (Consultations, Scans" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Optical Benefits" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Maternity-addon" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Maternity Waiting Period" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Complications of Pregnancy" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="New Born Cover" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Maternity-Addon" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Annual Limit'!$A$1:$F$23</definedName>
-    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Dental!$A$1:$F$30</definedName>
-    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">'Maternity (Consultations, Scans'!$B$1:$G$30</definedName>
-    <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">'Optical Benefits'!$A$1:$F$31</definedName>
+    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Dental!$A$1:$F$31</definedName>
+    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">'Maternity (Consultations, Scans'!$A$1:$E$6</definedName>
+    <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">'Optical Benefits'!$A$1:$F$32</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Out-patient Medicines'!$A$1:$H$71</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="160">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -64,7 +67,7 @@
     <t xml:space="preserve">percentage</t>
   </si>
   <si>
-    <t xml:space="preserve">AED 2,50,000</t>
+    <t xml:space="preserve">AED 250,000</t>
   </si>
   <si>
     <t xml:space="preserve">Regional Plus- Elite</t>
@@ -73,22 +76,22 @@
     <t xml:space="preserve">inside options arr</t>
   </si>
   <si>
-    <t xml:space="preserve">AED 3,00,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AED 5,00,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AED 10,00,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AED 15,00,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AED 20,00,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AED 25,00,000</t>
+    <t xml:space="preserve">AED 300,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED 500,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED 1,000,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED 1,500,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED 2,000,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED 2,500,000</t>
   </si>
   <si>
     <t xml:space="preserve">Regional Plus- Diamond</t>
@@ -404,24 +407,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Nil</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (Pharmacy Copay)</t>
-    </r>
+    <t xml:space="preserve">Nil (Pharmacy Co-pay)</t>
   </si>
   <si>
     <t xml:space="preserve">5%</t>
@@ -459,7 +445,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">5% (Pharmacy Copay)</t>
+    <t xml:space="preserve">5% (Pharmacy Co-pay)</t>
   </si>
   <si>
     <t xml:space="preserve">10%</t>
@@ -497,7 +483,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">10% (Pharmacy Copay)</t>
+    <t xml:space="preserve">10% (Pharmacy Co-pay)</t>
   </si>
   <si>
     <t xml:space="preserve">15%</t>
@@ -535,7 +521,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">15% (Pharmacy Copay)</t>
+    <t xml:space="preserve">15% (Pharmacy Co-pay)</t>
   </si>
   <si>
     <t xml:space="preserve">20%</t>
@@ -573,7 +559,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">20% (Pharmacy Copay)</t>
+    <t xml:space="preserve">20% (Pharmacy Co-pay)</t>
   </si>
   <si>
     <t xml:space="preserve">25%</t>
@@ -611,7 +597,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">25% (Pharmacy Copay)</t>
+    <t xml:space="preserve">25% (Pharmacy Co-pay)</t>
   </si>
   <si>
     <t xml:space="preserve">30%</t>
@@ -649,7 +635,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">30% (Pharmacy Copay)</t>
+    <t xml:space="preserve">30% (Pharmacy Co-pay)</t>
   </si>
   <si>
     <t xml:space="preserve">Covered up to AED 1,500 with Nil co-pay</t>
@@ -676,7 +662,7 @@
     <t xml:space="preserve">Covered up to AED 15,000 with Nil co-pay</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered up to AED 20,000 with Nil co-pay</t>
+    <t xml:space="preserve">Covered up to AED 20,000 with 5% co-pay</t>
   </si>
   <si>
     <t xml:space="preserve">Covered up to AED 1,500 with 5% co-pay</t>
@@ -703,9 +689,6 @@
     <t xml:space="preserve">Covered up to AED 15,000 with 5% co-pay</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered up to AED 20,000 with 5% co-pay</t>
-  </si>
-  <si>
     <t xml:space="preserve">Covered up to AED 1,500 with 10% co-pay</t>
   </si>
   <si>
@@ -844,6 +827,21 @@
     <t xml:space="preserve">currency</t>
   </si>
   <si>
+    <t xml:space="preserve">none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default Option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optional benefit Available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regional Plus- Elite/Regional Plus- Diamond/Regional Plus- Gold/Regional Plus- Silver/Regional Plus- Bronze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD</t>
+  </si>
+  <si>
     <t xml:space="preserve">fixed</t>
   </si>
   <si>
@@ -853,138 +851,60 @@
     <t xml:space="preserve">Covered up to AED 1,000 with 20% co-pay</t>
   </si>
   <si>
-    <t xml:space="preserve">USD</t>
-  </si>
-  <si>
     <t xml:space="preserve">Covered up to AED 3,500 with 20% co-pay</t>
   </si>
   <si>
+    <t xml:space="preserve">gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ageStart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ageEnd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maritalStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flag</t>
+  </si>
+  <si>
     <t xml:space="preserve">sheetName</t>
   </si>
   <si>
-    <t xml:space="preserve">flag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maternity-addon</t>
-  </si>
-  <si>
     <t xml:space="preserve">conditional-fixed</t>
   </si>
   <si>
     <t xml:space="preserve">Maternity Addon</t>
   </si>
   <si>
-    <t xml:space="preserve">IP &amp; OP- Covered up to AED 10,000 with AED 500 deductible (Optional Benefits Available)</t>
+    <t xml:space="preserve">OP- Covered in full &amp; IP- Covered in full with AED 500 deductible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">married</t>
   </si>
   <si>
     <t xml:space="preserve">m1</t>
   </si>
   <si>
-    <t xml:space="preserve">IP &amp; OP- Covered up to AED 7,500 with AED 500 deductible</t>
+    <t xml:space="preserve">Maternity-Addon</t>
   </si>
   <si>
     <t xml:space="preserve">m2</t>
   </si>
   <si>
-    <t xml:space="preserve">IP &amp; OP- Covered up to AED 15,000 with AED 500 deductible</t>
-  </si>
-  <si>
     <t xml:space="preserve">m3</t>
   </si>
   <si>
-    <t xml:space="preserve">IP &amp; OP- Covered up to AED 20,00 with AED 500 deductible</t>
-  </si>
-  <si>
     <t xml:space="preserve">m4</t>
   </si>
   <si>
-    <t xml:space="preserve">IP &amp; OP- Covered up to AED 25,000 with AED 500 deductible</t>
-  </si>
-  <si>
     <t xml:space="preserve">m5</t>
   </si>
   <si>
-    <t xml:space="preserve">IP &amp; OP- Covered up to AED 30,000 with AED 500 deductible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP &amp; OP- Covered up to AED 40,000 with AED 500 deductible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP &amp; OP- Covered up to AED 50,000 with AED 500 deductible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">m29</t>
-  </si>
-  <si>
     <t xml:space="preserve">Optical Addon</t>
   </si>
   <si>
@@ -997,22 +917,13 @@
     <t xml:space="preserve">Covered up to AED 750 with 20% co-pay</t>
   </si>
   <si>
-    <t xml:space="preserve">gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ageStart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ageEnd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maritalStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">married</t>
+    <t xml:space="preserve">280-day waiting period applies to non-declared pregnancies. However, no waiting period is applicable for declared ongoing pregnancies or declared planned pregnancies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered in full</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to 30 days</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +936,7 @@
     <numFmt numFmtId="166" formatCode="0%"/>
     <numFmt numFmtId="167" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1055,6 +966,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1065,7 +983,8 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1119,7 +1038,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1140,6 +1059,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1153,6 +1076,26 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1213,12 +1156,12 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="32.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.81"/>
@@ -1250,7 +1193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>8</v>
       </c>
@@ -1267,8 +1210,8 @@
       <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="0" t="n">
-        <v>-9.17347865576749</v>
+      <c r="F2" s="5" t="n">
+        <v>-9.17</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>11</v>
@@ -1278,7 +1221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
@@ -1295,8 +1238,8 @@
       <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>-7.53860127157129</v>
+      <c r="F3" s="5" t="n">
+        <v>-7.54</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>11</v>
@@ -1306,7 +1249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
@@ -1323,8 +1266,8 @@
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="0" t="n">
-        <v>-5.99455040871936</v>
+      <c r="F4" s="5" t="n">
+        <v>-5.99</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
@@ -1334,7 +1277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>8</v>
       </c>
@@ -1351,8 +1294,8 @@
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <v>-4.63215258855584</v>
+      <c r="F5" s="5" t="n">
+        <v>-4.63</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>11</v>
@@ -1362,7 +1305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>8</v>
       </c>
@@ -1379,7 +1322,7 @@
       <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -1390,7 +1333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>8</v>
       </c>
@@ -1407,8 +1350,8 @@
       <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="0" t="n">
-        <v>1.81653042688466</v>
+      <c r="F7" s="5" t="n">
+        <v>1.82</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>11</v>
@@ -1418,7 +1361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1435,8 +1378,8 @@
       <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="0" t="n">
-        <v>3.63306085376931</v>
+      <c r="F8" s="5" t="n">
+        <v>3.63</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>11</v>
@@ -1446,7 +1389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>8</v>
       </c>
@@ -1463,8 +1406,8 @@
       <c r="E9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="0" t="n">
-        <v>-4.76190476190476</v>
+      <c r="F9" s="5" t="n">
+        <v>-4.76</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>11</v>
@@ -1474,7 +1417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>8</v>
       </c>
@@ -1491,8 +1434,8 @@
       <c r="E10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="0" t="n">
-        <v>-3.04761904761905</v>
+      <c r="F10" s="5" t="n">
+        <v>-3.05</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>11</v>
@@ -1502,7 +1445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>8</v>
       </c>
@@ -1519,8 +1462,8 @@
       <c r="E11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="0" t="n">
-        <v>-1.42857142857143</v>
+      <c r="F11" s="5" t="n">
+        <v>-1.43</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>11</v>
@@ -1530,7 +1473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>8</v>
       </c>
@@ -1547,7 +1490,7 @@
       <c r="E12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -1558,7 +1501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>8</v>
       </c>
@@ -1575,8 +1518,8 @@
       <c r="E13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="0" t="n">
-        <v>4.85714285714285</v>
+      <c r="F13" s="5" t="n">
+        <v>4.86</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>11</v>
@@ -1586,7 +1529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>8</v>
       </c>
@@ -1603,8 +1546,8 @@
       <c r="E14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="0" t="n">
-        <v>6.76190476190475</v>
+      <c r="F14" s="5" t="n">
+        <v>6.76000000000001</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>11</v>
@@ -1628,11 +1571,11 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>-3.38164251207728</v>
+        <v>-3.38000000000001</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>11</v>
@@ -1656,11 +1599,11 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>-1.64251207729468</v>
+        <v>-1.64</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>11</v>
@@ -1684,7 +1627,7 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F17" s="0" t="n">
@@ -1712,11 +1655,11 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>1.44927536231885</v>
+        <v>1.45</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>11</v>
@@ -1740,7 +1683,7 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F19" s="0" t="n">
@@ -1768,7 +1711,7 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="0" t="n">
@@ -1796,7 +1739,7 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F21" s="0" t="n">
@@ -1824,7 +1767,7 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F22" s="0" t="n">
@@ -1852,7 +1795,7 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F23" s="0" t="n">
@@ -1876,6 +1819,336 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="2"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="2"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M23" activeCellId="0" sqref="M23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>6794</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>6298</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>4479</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>4094</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>3445</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1890,7 +2163,7 @@
       <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.65"/>
@@ -1930,10 +2203,10 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="4" t="n">
@@ -1958,10 +2231,10 @@
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="4" t="n">
@@ -1986,10 +2259,10 @@
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="4" t="n">
@@ -2014,10 +2287,10 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="4" t="n">
@@ -2042,10 +2315,10 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="4" t="n">
@@ -2070,10 +2343,10 @@
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="4" t="n">
@@ -2098,10 +2371,10 @@
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="4" t="n">
@@ -2126,10 +2399,10 @@
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="4" t="n">
@@ -2154,10 +2427,10 @@
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="4" t="n">
@@ -2182,10 +2455,10 @@
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="4" t="n">
@@ -2210,10 +2483,10 @@
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="4" t="n">
@@ -2238,10 +2511,10 @@
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="4" t="n">
@@ -2266,10 +2539,10 @@
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="4" t="n">
@@ -2294,10 +2567,10 @@
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="4" t="n">
@@ -2322,10 +2595,10 @@
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="4" t="n">
@@ -2368,7 +2641,7 @@
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.18"/>
@@ -2428,7 +2701,7 @@
       <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -2453,7 +2726,7 @@
       <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -2478,7 +2751,7 @@
       <c r="A5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -2503,7 +2776,7 @@
       <c r="A6" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2528,7 +2801,7 @@
       <c r="A7" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -2553,7 +2826,7 @@
       <c r="A8" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -2578,7 +2851,7 @@
       <c r="A9" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -2621,7 +2894,7 @@
       <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.3"/>
@@ -2681,7 +2954,7 @@
       <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -2706,7 +2979,7 @@
       <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -2731,7 +3004,7 @@
       <c r="A5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -2756,7 +3029,7 @@
       <c r="A6" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2796,12 +3069,13 @@
   <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
+      <selection pane="topLeft" activeCell="H33" activeCellId="0" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="55.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.39"/>
   </cols>
@@ -2864,7 +3138,7 @@
       <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -2892,7 +3166,7 @@
       <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -2905,7 +3179,7 @@
       <c r="E4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -2920,7 +3194,7 @@
       <c r="A5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -2933,7 +3207,7 @@
       <c r="E5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -2948,7 +3222,7 @@
       <c r="A6" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2961,7 +3235,7 @@
       <c r="E6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="9" t="s">
         <v>57</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -2976,7 +3250,7 @@
       <c r="A7" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -2989,7 +3263,7 @@
       <c r="E7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -3004,7 +3278,7 @@
       <c r="A8" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -3017,7 +3291,7 @@
       <c r="E8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -3043,7 +3317,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>-2.49999999999999</v>
+        <v>-2.5</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>45</v>
@@ -3256,7 +3530,7 @@
       <c r="A17" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -3266,11 +3540,11 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="10" t="n">
         <v>-0.249999999999995</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>48</v>
+      <c r="F17" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>11</v>
@@ -3284,7 +3558,7 @@
       <c r="A18" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -3295,9 +3569,9 @@
         <v>1</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>-2.49999999999999</v>
-      </c>
-      <c r="F18" s="8" t="s">
+        <v>-2.5</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>48</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -3312,7 +3586,7 @@
       <c r="A19" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -3325,7 +3599,7 @@
       <c r="E19" s="0" t="n">
         <v>-2.25</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="9" t="s">
         <v>48</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -3340,7 +3614,7 @@
       <c r="A20" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -3353,7 +3627,7 @@
       <c r="E20" s="0" t="n">
         <v>-2</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="9" t="s">
         <v>48</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -3368,7 +3642,7 @@
       <c r="A21" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -3381,7 +3655,7 @@
       <c r="E21" s="0" t="n">
         <v>-1.75</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="9" t="s">
         <v>48</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -3396,7 +3670,7 @@
       <c r="A22" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -3409,7 +3683,7 @@
       <c r="E22" s="0" t="n">
         <v>-1.25</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="9" t="s">
         <v>48</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -3424,7 +3698,7 @@
       <c r="A23" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -3437,7 +3711,7 @@
       <c r="E23" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="9" t="s">
         <v>48</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -3452,7 +3726,7 @@
       <c r="A24" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -3465,7 +3739,7 @@
       <c r="E24" s="0" t="n">
         <v>-0.749999999999995</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="9" t="s">
         <v>48</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -3480,7 +3754,7 @@
       <c r="A25" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -3493,7 +3767,7 @@
       <c r="E25" s="0" t="n">
         <v>-0.5</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="9" t="s">
         <v>48</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -3508,11 +3782,11 @@
       <c r="A26" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D26" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3521,7 +3795,7 @@
       <c r="E26" s="0" t="n">
         <v>-0.249999999999995</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="9" t="s">
         <v>48</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -3536,20 +3810,20 @@
       <c r="A27" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>-2.49999999999999</v>
-      </c>
-      <c r="F27" s="8" t="s">
+        <v>-2.5</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G27" s="2" t="s">
@@ -3564,11 +3838,11 @@
       <c r="A28" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3577,7 +3851,7 @@
       <c r="E28" s="0" t="n">
         <v>-2.25</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -3592,11 +3866,11 @@
       <c r="A29" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D29" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3605,7 +3879,7 @@
       <c r="E29" s="0" t="n">
         <v>-2</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -3620,11 +3894,11 @@
       <c r="A30" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D30" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3633,7 +3907,7 @@
       <c r="E30" s="0" t="n">
         <v>-1.75</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -3648,11 +3922,11 @@
       <c r="A31" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D31" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3661,7 +3935,7 @@
       <c r="E31" s="0" t="n">
         <v>-1.25</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G31" s="2" t="s">
@@ -3676,11 +3950,11 @@
       <c r="A32" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D32" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3689,7 +3963,7 @@
       <c r="E32" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G32" s="2" t="s">
@@ -3704,11 +3978,11 @@
       <c r="A33" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D33" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3717,7 +3991,7 @@
       <c r="E33" s="0" t="n">
         <v>-0.749999999999995</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G33" s="2" t="s">
@@ -3732,11 +4006,11 @@
       <c r="A34" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D34" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3745,7 +4019,7 @@
       <c r="E34" s="0" t="n">
         <v>-0.5</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G34" s="2" t="s">
@@ -3756,24 +4030,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D35" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35" s="5" t="n">
         <v>-0.249999999999995</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G35" s="2" t="s">
@@ -3788,20 +4062,20 @@
       <c r="A36" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D36" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>-2.49999999999999</v>
-      </c>
-      <c r="F36" s="8" t="s">
+        <v>-2.5</v>
+      </c>
+      <c r="F36" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G36" s="2" t="s">
@@ -3816,11 +4090,11 @@
       <c r="A37" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D37" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3829,7 +4103,7 @@
       <c r="E37" s="0" t="n">
         <v>-2.25</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -3844,11 +4118,11 @@
       <c r="A38" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D38" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3857,7 +4131,7 @@
       <c r="E38" s="0" t="n">
         <v>-2</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G38" s="2" t="s">
@@ -3872,11 +4146,11 @@
       <c r="A39" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D39" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3885,7 +4159,7 @@
       <c r="E39" s="0" t="n">
         <v>-1.75</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G39" s="2" t="s">
@@ -3900,11 +4174,11 @@
       <c r="A40" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D40" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3913,7 +4187,7 @@
       <c r="E40" s="0" t="n">
         <v>-1.25</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G40" s="2" t="s">
@@ -3928,11 +4202,11 @@
       <c r="A41" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D41" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3941,7 +4215,7 @@
       <c r="E41" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G41" s="2" t="s">
@@ -3956,11 +4230,11 @@
       <c r="A42" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D42" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3969,7 +4243,7 @@
       <c r="E42" s="0" t="n">
         <v>-0.749999999999995</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G42" s="2" t="s">
@@ -3984,11 +4258,11 @@
       <c r="A43" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D43" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3997,7 +4271,7 @@
       <c r="E43" s="0" t="n">
         <v>-0.5</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G43" s="2" t="s">
@@ -4008,24 +4282,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D44" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44" s="5" t="n">
         <v>-0.249999999999995</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G44" s="2" t="s">
@@ -4040,20 +4314,20 @@
       <c r="A45" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D45" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>-2.49999999999999</v>
-      </c>
-      <c r="F45" s="8" t="s">
+        <v>-2.5</v>
+      </c>
+      <c r="F45" s="9" t="s">
         <v>57</v>
       </c>
       <c r="G45" s="2" t="s">
@@ -4068,11 +4342,11 @@
       <c r="A46" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D46" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4081,7 +4355,7 @@
       <c r="E46" s="0" t="n">
         <v>-2.25</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="9" t="s">
         <v>57</v>
       </c>
       <c r="G46" s="2" t="s">
@@ -4096,11 +4370,11 @@
       <c r="A47" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D47" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4109,7 +4383,7 @@
       <c r="E47" s="0" t="n">
         <v>-2</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="9" t="s">
         <v>57</v>
       </c>
       <c r="G47" s="2" t="s">
@@ -4124,11 +4398,11 @@
       <c r="A48" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D48" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4137,7 +4411,7 @@
       <c r="E48" s="0" t="n">
         <v>-1.75</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="9" t="s">
         <v>57</v>
       </c>
       <c r="G48" s="2" t="s">
@@ -4152,11 +4426,11 @@
       <c r="A49" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D49" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4165,7 +4439,7 @@
       <c r="E49" s="0" t="n">
         <v>-1.25</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="9" t="s">
         <v>57</v>
       </c>
       <c r="G49" s="2" t="s">
@@ -4180,11 +4454,11 @@
       <c r="A50" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D50" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4193,7 +4467,7 @@
       <c r="E50" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="9" t="s">
         <v>57</v>
       </c>
       <c r="G50" s="2" t="s">
@@ -4208,11 +4482,11 @@
       <c r="A51" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D51" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4221,7 +4495,7 @@
       <c r="E51" s="0" t="n">
         <v>-0.749999999999995</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="9" t="s">
         <v>57</v>
       </c>
       <c r="G51" s="2" t="s">
@@ -4236,11 +4510,11 @@
       <c r="A52" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D52" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4249,7 +4523,7 @@
       <c r="E52" s="0" t="n">
         <v>-0.5</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="9" t="s">
         <v>57</v>
       </c>
       <c r="G52" s="2" t="s">
@@ -4260,24 +4534,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D53" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="E53" s="5" t="n">
         <v>-0.249999999999995</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="9" t="s">
         <v>57</v>
       </c>
       <c r="G53" s="2" t="s">
@@ -4292,20 +4566,20 @@
       <c r="A54" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D54" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>-2.49999999999999</v>
-      </c>
-      <c r="F54" s="8" t="s">
+        <v>-2.5</v>
+      </c>
+      <c r="F54" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G54" s="2" t="s">
@@ -4320,11 +4594,11 @@
       <c r="A55" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D55" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4333,7 +4607,7 @@
       <c r="E55" s="0" t="n">
         <v>-2.25</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G55" s="2" t="s">
@@ -4348,11 +4622,11 @@
       <c r="A56" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D56" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4361,7 +4635,7 @@
       <c r="E56" s="0" t="n">
         <v>-2</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G56" s="2" t="s">
@@ -4376,11 +4650,11 @@
       <c r="A57" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D57" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4389,7 +4663,7 @@
       <c r="E57" s="0" t="n">
         <v>-1.75</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F57" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G57" s="2" t="s">
@@ -4404,11 +4678,11 @@
       <c r="A58" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D58" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4417,7 +4691,7 @@
       <c r="E58" s="0" t="n">
         <v>-1.25</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F58" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G58" s="2" t="s">
@@ -4432,11 +4706,11 @@
       <c r="A59" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D59" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4445,7 +4719,7 @@
       <c r="E59" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G59" s="2" t="s">
@@ -4460,11 +4734,11 @@
       <c r="A60" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D60" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4473,7 +4747,7 @@
       <c r="E60" s="0" t="n">
         <v>-0.749999999999995</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G60" s="2" t="s">
@@ -4488,11 +4762,11 @@
       <c r="A61" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D61" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4501,7 +4775,7 @@
       <c r="E61" s="0" t="n">
         <v>-0.5</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G61" s="2" t="s">
@@ -4512,24 +4786,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D62" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E62" s="0" t="n">
+      <c r="E62" s="5" t="n">
         <v>-0.249999999999995</v>
       </c>
-      <c r="F62" s="8" t="s">
+      <c r="F62" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G62" s="2" t="s">
@@ -4544,20 +4818,20 @@
       <c r="A63" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D63" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>-2.49999999999999</v>
-      </c>
-      <c r="F63" s="8" t="s">
+        <v>-2.5</v>
+      </c>
+      <c r="F63" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G63" s="2" t="s">
@@ -4572,11 +4846,11 @@
       <c r="A64" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D64" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4585,7 +4859,7 @@
       <c r="E64" s="0" t="n">
         <v>-2.25</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G64" s="2" t="s">
@@ -4600,11 +4874,11 @@
       <c r="A65" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D65" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4613,7 +4887,7 @@
       <c r="E65" s="0" t="n">
         <v>-2</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="F65" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G65" s="2" t="s">
@@ -4628,11 +4902,11 @@
       <c r="A66" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D66" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4641,7 +4915,7 @@
       <c r="E66" s="0" t="n">
         <v>-1.75</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F66" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G66" s="2" t="s">
@@ -4656,11 +4930,11 @@
       <c r="A67" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D67" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4669,7 +4943,7 @@
       <c r="E67" s="0" t="n">
         <v>-1.25</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G67" s="2" t="s">
@@ -4684,11 +4958,11 @@
       <c r="A68" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D68" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4697,7 +4971,7 @@
       <c r="E68" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F68" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G68" s="2" t="s">
@@ -4712,11 +4986,11 @@
       <c r="A69" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D69" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4725,7 +4999,7 @@
       <c r="E69" s="0" t="n">
         <v>-0.749999999999995</v>
       </c>
-      <c r="F69" s="8" t="s">
+      <c r="F69" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G69" s="2" t="s">
@@ -4740,11 +5014,11 @@
       <c r="A70" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D70" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4753,7 +5027,7 @@
       <c r="E70" s="0" t="n">
         <v>-0.5</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="F70" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G70" s="2" t="s">
@@ -4764,24 +5038,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D71" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E71" s="0" t="n">
+      <c r="E71" s="5" t="n">
         <v>-0.249999999999995</v>
       </c>
-      <c r="F71" s="8" t="s">
+      <c r="F71" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G71" s="2" t="s">
@@ -4810,15 +5084,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E35" activeCellId="0" sqref="E35"/>
+      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.84"/>
@@ -4848,32 +5122,30 @@
         <v>6</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>605.439306358382</v>
-      </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
@@ -4887,13 +5159,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="D3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4902,8 +5174,8 @@
       <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>665.317919075145</v>
+      <c r="F3" s="2" t="n">
+        <v>601</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>11</v>
@@ -4918,13 +5190,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4933,8 +5205,8 @@
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="0" t="n">
-        <v>844.953757225434</v>
+      <c r="F4" s="2" t="n">
+        <v>661</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
@@ -4949,13 +5221,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4964,8 +5236,8 @@
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <v>904.832369942197</v>
+      <c r="F5" s="2" t="n">
+        <v>839</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>11</v>
@@ -4980,13 +5252,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="D6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4995,8 +5267,8 @@
       <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <v>971.364161849711</v>
+      <c r="F6" s="2" t="n">
+        <v>899</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>11</v>
@@ -5011,13 +5283,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="D7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5026,8 +5298,8 @@
       <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="0" t="n">
-        <v>1151</v>
+      <c r="F7" s="2" t="n">
+        <v>965</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>11</v>
@@ -5042,13 +5314,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5057,8 +5329,8 @@
       <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="0" t="n">
-        <v>1270.75722543353</v>
+      <c r="F8" s="2" t="n">
+        <v>1143</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>11</v>
@@ -5073,13 +5345,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5088,8 +5360,8 @@
       <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="0" t="n">
-        <v>1816.31791907514</v>
+      <c r="F9" s="2" t="n">
+        <v>1262</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>11</v>
@@ -5104,23 +5376,23 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="D10" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>401.397260273973</v>
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>1804</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>11</v>
@@ -5135,13 +5407,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="D11" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5150,8 +5422,8 @@
       <c r="E11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="0" t="n">
-        <v>441.095890410959</v>
+      <c r="F11" s="2" t="n">
+        <v>399</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>11</v>
@@ -5166,13 +5438,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D12" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5181,8 +5453,8 @@
       <c r="E12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="0" t="n">
-        <v>560.191780821918</v>
+      <c r="F12" s="2" t="n">
+        <v>438</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>11</v>
@@ -5197,13 +5469,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D13" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5212,8 +5484,8 @@
       <c r="E13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="0" t="n">
-        <v>599.890410958904</v>
+      <c r="F13" s="2" t="n">
+        <v>556</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>11</v>
@@ -5228,13 +5500,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="D14" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5243,8 +5515,8 @@
       <c r="E14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="0" t="n">
-        <v>644</v>
+      <c r="F14" s="2" t="n">
+        <v>596</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>11</v>
@@ -5259,13 +5531,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="D15" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5274,8 +5546,8 @@
       <c r="E15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="0" t="n">
-        <v>763.095890410959</v>
+      <c r="F15" s="2" t="n">
+        <v>640</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>11</v>
@@ -5290,13 +5562,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D16" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5305,8 +5577,8 @@
       <c r="E16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="0" t="n">
-        <v>842.493150684932</v>
+      <c r="F16" s="2" t="n">
+        <v>758</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>11</v>
@@ -5321,23 +5593,23 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="D17" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>214.96062992126</v>
+        <v>18</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>837</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>11</v>
@@ -5352,13 +5624,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="D18" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5367,8 +5639,8 @@
       <c r="E18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="0" t="n">
-        <v>236.220472440945</v>
+      <c r="F18" s="2" t="n">
+        <v>213</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>11</v>
@@ -5383,13 +5655,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D19" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5398,8 +5670,8 @@
       <c r="E19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="0" t="n">
-        <v>300</v>
+      <c r="F19" s="2" t="n">
+        <v>235</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>11</v>
@@ -5414,13 +5686,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D20" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5429,8 +5701,8 @@
       <c r="E20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="0" t="n">
-        <v>321.259842519685</v>
+      <c r="F20" s="2" t="n">
+        <v>298</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>11</v>
@@ -5445,13 +5717,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="D21" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5460,8 +5732,8 @@
       <c r="E21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="0" t="n">
-        <v>344.881889763779</v>
+      <c r="F21" s="2" t="n">
+        <v>319</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>11</v>
@@ -5476,13 +5748,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="D22" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5491,8 +5763,8 @@
       <c r="E22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="0" t="n">
-        <v>408.661417322835</v>
+      <c r="F22" s="2" t="n">
+        <v>342</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>11</v>
@@ -5507,23 +5779,23 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D23" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>156</v>
+        <v>19</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>406</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>11</v>
@@ -5538,13 +5810,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="D24" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5553,8 +5825,8 @@
       <c r="E24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="0" t="n">
-        <v>171.428571428571</v>
+      <c r="F24" s="2" t="n">
+        <v>155</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>11</v>
@@ -5569,13 +5841,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D25" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5584,8 +5856,8 @@
       <c r="E25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="0" t="n">
-        <v>217.714285714286</v>
+      <c r="F25" s="2" t="n">
+        <v>170</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>11</v>
@@ -5600,13 +5872,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D26" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5615,8 +5887,8 @@
       <c r="E26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="0" t="n">
-        <v>233.142857142857</v>
+      <c r="F26" s="2" t="n">
+        <v>216</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>11</v>
@@ -5631,13 +5903,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="D27" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5646,8 +5918,8 @@
       <c r="E27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="0" t="n">
-        <v>250.285714285714</v>
+      <c r="F27" s="2" t="n">
+        <v>231</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>11</v>
@@ -5662,23 +5934,23 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D28" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>156</v>
+        <v>20</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>248</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>11</v>
@@ -5693,13 +5965,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="D29" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5708,8 +5980,8 @@
       <c r="E29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="0" t="n">
-        <v>171.428571428571</v>
+      <c r="F29" s="2" t="n">
+        <v>155</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>11</v>
@@ -5724,13 +5996,13 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D30" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5739,8 +6011,8 @@
       <c r="E30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="0" t="n">
-        <v>217.714285714286</v>
+      <c r="F30" s="2" t="n">
+        <v>170</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>11</v>
@@ -5753,8 +6025,39 @@
         <v>1</v>
       </c>
     </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="I31" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F30"/>
+  <autoFilter ref="A1:F31"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5771,1134 +6074,299 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
+      <selection pane="topLeft" activeCell="N11" activeCellId="0" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="75.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="60.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>133</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="0" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>7</v>
+        <v>137</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="A2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="n">
-        <v>3824</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="I2" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="J2" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>3673.05263157895</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>11</v>
+      <c r="H3" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="I3" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="J3" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="H4" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>5031.57894736842</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="0" t="s">
+      <c r="B5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="J4" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K4" s="0" t="s">
+      <c r="H5" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C6" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>5434.1052631579</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="0" t="s">
+      <c r="D6" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="J5" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K5" s="0" t="s">
+      <c r="H6" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="0" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="J6" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="L6" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>5736</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="M6" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="N6" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="E7" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>6390.1052631579</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>6490.73684210526</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>6692</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>3544.55555555556</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>3404.63888888889</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>4663.88888888889</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J12" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E13" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>5037</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J13" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K13" s="0" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E14" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>5316.83333333333</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J14" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K14" s="0" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E15" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>5923.13888888889</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J15" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K15" s="0" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E16" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>6016.41666666667</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J16" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K16" s="0" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E17" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>6202.97222222222</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J17" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E18" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="1" t="n">
-        <v>2520.92</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J18" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E19" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>2421.41</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J19" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K19" s="0" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E20" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>3317</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J20" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K20" s="0" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E21" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>3582.36</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J21" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K21" s="0" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E22" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <v>3781.38</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J22" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K22" s="0" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E23" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>4212.59</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J23" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K23" s="0" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E24" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="1" t="n">
-        <v>2304</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J24" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K24" s="0" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E25" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="0" t="n">
-        <v>2213.05263157895</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J25" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K25" s="0" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E26" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="0" t="n">
-        <v>3031.57894736842</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J26" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K26" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E27" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="0" t="n">
-        <v>3274.10526315789</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J27" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K27" s="0" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E28" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="1" t="n">
-        <v>1939</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J28" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K28" s="0" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E29" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" s="0" t="n">
-        <v>1862.46052631579</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J29" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K29" s="0" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E30" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" s="0" t="n">
-        <v>2551.31578947368</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="J30" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="K30" s="0" t="s">
-        <v>174</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:G30"/>
+  <autoFilter ref="A1:E6"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -6915,13 +6383,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="47.56"/>
@@ -6952,32 +6420,30 @@
         <v>6</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>165.426751592357</v>
-      </c>
+      <c r="C2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
@@ -6991,13 +6457,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="D3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7006,8 +6472,8 @@
       <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>246.216560509554</v>
+      <c r="F3" s="2" t="n">
+        <v>164</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>11</v>
@@ -7022,13 +6488,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="D4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7037,8 +6503,8 @@
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="0" t="n">
-        <v>330.853503184713</v>
+      <c r="F4" s="2" t="n">
+        <v>245</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
@@ -7053,13 +6519,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="D5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7068,8 +6534,8 @@
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <v>384.713375796178</v>
+      <c r="F5" s="2" t="n">
+        <v>329</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>11</v>
@@ -7084,13 +6550,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="D6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7099,8 +6565,8 @@
       <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <v>496.28025477707</v>
+      <c r="F6" s="2" t="n">
+        <v>382</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>11</v>
@@ -7115,13 +6581,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7130,8 +6596,8 @@
       <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="0" t="n">
-        <v>550.140127388535</v>
+      <c r="F7" s="2" t="n">
+        <v>493</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>11</v>
@@ -7146,13 +6612,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7161,8 +6627,8 @@
       <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="0" t="n">
-        <v>604</v>
+      <c r="F8" s="2" t="n">
+        <v>546</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>11</v>
@@ -7177,23 +6643,23 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>176</v>
+        <v>101</v>
       </c>
       <c r="D9" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>138.020979020979</v>
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>600</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>11</v>
@@ -7208,13 +6674,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="D10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7223,8 +6689,8 @@
       <c r="E10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="0" t="n">
-        <v>205.426573426573</v>
+      <c r="F10" s="2" t="n">
+        <v>137</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>11</v>
@@ -7239,13 +6705,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="D11" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7254,8 +6720,8 @@
       <c r="E11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="0" t="n">
-        <v>276.041958041958</v>
+      <c r="F11" s="2" t="n">
+        <v>204</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>11</v>
@@ -7270,13 +6736,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="D12" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7285,8 +6751,8 @@
       <c r="E12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="0" t="n">
-        <v>320.979020979021</v>
+      <c r="F12" s="2" t="n">
+        <v>274</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>11</v>
@@ -7301,13 +6767,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="D13" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7316,8 +6782,8 @@
       <c r="E13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="0" t="n">
-        <v>414.062937062937</v>
+      <c r="F13" s="2" t="n">
+        <v>318</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>11</v>
@@ -7332,13 +6798,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D14" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7347,8 +6813,8 @@
       <c r="E14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="0" t="n">
-        <v>459</v>
+      <c r="F14" s="2" t="n">
+        <v>411</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>11</v>
@@ -7363,13 +6829,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D15" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7378,8 +6844,8 @@
       <c r="E15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="0" t="n">
-        <v>503.937062937063</v>
+      <c r="F15" s="2" t="n">
+        <v>455</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>11</v>
@@ -7394,23 +6860,23 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>176</v>
+        <v>101</v>
       </c>
       <c r="D16" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>74.39</v>
+        <v>18</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>500</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>11</v>
@@ -7425,13 +6891,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="D17" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7440,8 +6906,8 @@
       <c r="E17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="0" t="n">
-        <v>110.72</v>
+      <c r="F17" s="2" t="n">
+        <v>74</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>11</v>
@@ -7456,13 +6922,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="D18" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7471,8 +6937,8 @@
       <c r="E18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="0" t="n">
-        <v>148.78</v>
+      <c r="F18" s="2" t="n">
+        <v>110</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>11</v>
@@ -7487,13 +6953,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="D19" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7502,8 +6968,8 @@
       <c r="E19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="0" t="n">
-        <v>173</v>
+      <c r="F19" s="2" t="n">
+        <v>148</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>11</v>
@@ -7518,13 +6984,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="D20" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7533,8 +6999,8 @@
       <c r="E20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="0" t="n">
-        <v>223.17</v>
+      <c r="F20" s="2" t="n">
+        <v>172</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>11</v>
@@ -7549,13 +7015,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D21" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7564,8 +7030,8 @@
       <c r="E21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="0" t="n">
-        <v>247.39</v>
+      <c r="F21" s="2" t="n">
+        <v>221</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>11</v>
@@ -7580,13 +7046,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D22" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7595,8 +7061,8 @@
       <c r="E22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="0" t="n">
-        <v>271.61</v>
+      <c r="F22" s="2" t="n">
+        <v>245</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>11</v>
@@ -7611,23 +7077,23 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>176</v>
+        <v>101</v>
       </c>
       <c r="D23" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>40</v>
+        <v>19</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>269</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>11</v>
@@ -7642,13 +7108,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="D24" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7657,8 +7123,8 @@
       <c r="E24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="0" t="n">
-        <v>59.5348837209302</v>
+      <c r="F24" s="2" t="n">
+        <v>40</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>11</v>
@@ -7673,13 +7139,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="D25" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7688,8 +7154,8 @@
       <c r="E25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="0" t="n">
-        <v>80</v>
+      <c r="F25" s="2" t="n">
+        <v>59</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>11</v>
@@ -7704,13 +7170,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="D26" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7719,8 +7185,8 @@
       <c r="E26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="0" t="n">
-        <v>93.0232558139535</v>
+      <c r="F26" s="2" t="n">
+        <v>79</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>11</v>
@@ -7735,13 +7201,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="D27" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7750,8 +7216,8 @@
       <c r="E27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="0" t="n">
-        <v>120</v>
+      <c r="F27" s="2" t="n">
+        <v>92</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>11</v>
@@ -7766,23 +7232,23 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>176</v>
+        <v>99</v>
       </c>
       <c r="D28" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>119</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>11</v>
@@ -7797,13 +7263,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="D29" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7812,8 +7278,8 @@
       <c r="E29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="0" t="n">
-        <v>59.5348837209302</v>
+      <c r="F29" s="2" t="n">
+        <v>40</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>11</v>
@@ -7828,13 +7294,13 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="D30" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7843,8 +7309,8 @@
       <c r="E30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="0" t="n">
-        <v>80</v>
+      <c r="F30" s="2" t="n">
+        <v>59</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>11</v>
@@ -7859,13 +7325,13 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="D31" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7874,8 +7340,8 @@
       <c r="E31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="0" t="n">
-        <v>93.0232558139535</v>
+      <c r="F31" s="2" t="n">
+        <v>79</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>11</v>
@@ -7888,8 +7354,39 @@
         <v>1</v>
       </c>
     </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="I32" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F31"/>
+  <autoFilter ref="A1:F32"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -7906,613 +7403,73 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
+      <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>134</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>180</v>
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>136</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>3824</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>44</v>
+        <v>127</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>3673.05263157895</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>184</v>
-      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>5031.57894736842</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>184</v>
-      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>5434.1052631579</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>184</v>
-      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>5736</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>6390.1052631579</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>6490.73684210526</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>6692</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>3544.55555555556</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>3404.63888888889</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>4663.88888888889</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>5037</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>5316.83333333333</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>5923.13888888889</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>6016.41666666667</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>6202.97222222222</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>2520.92</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>2421.41</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>3317</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>3582.36</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>3781.38</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>4212.59</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>2304</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>2213.05263157895</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>3031.57894736842</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>3274.10526315789</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="B28" s="1" t="n">
-        <v>1939</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>1862.46052631579</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>2551.31578947368</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>184</v>
-      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
